--- a/biology/Botanique/Plasmopara/Plasmopara.xlsx
+++ b/biology/Botanique/Plasmopara/Plasmopara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plasmopara est un genre de champignons oomycètes de la famille des Peronosporaceae.
 Ce genre comprend diverses espèces pathogènes des plantes, responsables du mildiou de la vigne (Plasmopara viticola) et d'autres formes de mildiou sur carotte, persil, panais, cerfeuil, groseillier, tournesol et impatiente.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (7 octobre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (7 octobre 2014) :
 Rhysotheca Wilson 1907 ;
 Pseudoplasmopara Sawada 1922.</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (28 février 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (28 février 2019) :
 Plasmopara acalyphae (G. W. Wilson) G. W. Wilson, 1918
 Plasmopara achyranthis J. F. Tao &amp; Y. Qin, 1983
 Plasmopara affinis Novot., 1962
@@ -647,7 +663,7 @@
 Plasmopara wildemaniana Henn., 1907
 Plasmopara wilsonii Voglmayr, Fatehi &amp; Constant., 2006
 Plasmopara yunnanensis J. F. Tao &amp; Y. Qin, 1987
-Selon Index Fungorum                                      (28 février 2019)[4] :
+Selon Index Fungorum                                      (28 février 2019) :
 Plasmopara acalyphae (G.W. Wilson) G.W. Wilson 1918
 Plasmopara achyranthis J.F. Tao &amp; Y. Qin 1983
 Plasmopara affinis Novot. 1962
@@ -759,7 +775,7 @@
 Plasmopara wildemaniana Henn. 1907
 Plasmopara wilsonii Voglmayr, Fatehi &amp; Constant. 2006
 Plasmopara yunnanensis J.F. Tao &amp; Y. Qin 1987
-Selon NCBI  (28 février 2019)[5] :
+Selon NCBI  (28 février 2019) :
 Plasmopara angelicae
 Plasmopara angustiterminalis
 Plasmopara australis Peronospora australis Speg. 1881
